--- a/pred_ohlcv/54_21/2020-01-22 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 GXC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>438362.7493999998</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>438362.7493999998</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>437412.7493999998</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>437413.8493999998</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>435848.8493999998</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>435849.9493999998</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>435940.1636999997</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>436895.7316999998</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>437209.2208999998</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>437220.2208999998</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>440850.2208999998</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>440850.2208999998</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>439900.4549999998</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>439738.0191999998</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>439738.0191999998</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>439738.0191999998</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>504062.5023927798</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>499651.2754927798</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>511917.8152229298</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>506475.7949229298</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>483932.7149623998</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>467933.8194623998</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>467623.7485623998</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>415833.8524623998</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>411862.1308623998</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>383444.6634474698</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>381754.1266041698</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>379093.3370041698</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>379103.3370041698</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>375790.4416041698</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>375790.4416041698</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>371943.0879041698</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>370477.7103041698</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>358842.3172041698</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>344959.3154041698</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-22 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 GXC ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>438362.7493999998</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>437413.8493999998</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>435848.8493999998</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>504062.5023927798</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>499651.2754927798</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>511917.8152229298</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>483932.7149623998</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>467933.8194623998</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>467623.7485623998</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>435157.4375623998</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>415833.8524623998</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>411862.1308623998</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>383444.6634474698</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>381754.1266041698</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>375790.4416041698</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>371943.0879041698</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>370477.7103041698</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>344959.3154041698</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
